--- a/Lab/Personal/graph.xlsx
+++ b/Lab/Personal/graph.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\7SemParProg\Lab\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0286E-B859-4678-AF04-456A42DDF3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="38955" yWindow="6510" windowWidth="25155" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -112,12 +121,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время (только подчёт) (с)</a:t>
+              <a:t>Время</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>(с)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -180,35 +196,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>1,0000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2,0000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3,0000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4,0000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5,0000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6,0000</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$B$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6415999999999999E-2</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1899E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9100000000000004E-3</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4590000000000003E-3</c:v>
+                  <c:v>6.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8939999999999999E-3</c:v>
+                  <c:v>6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2259999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4580000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3769999999999998E-3</c:v>
+                  <c:v>6.7000000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,359 +429,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Время</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> (полное) (с)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$1:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.4390999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8918000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2627999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9598000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6979999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7240999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7446E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4243000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C39F-40EE-83E8-AD03F52ACEDE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1698281856"/>
-        <c:axId val="1698282272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1698281856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698282272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1698282272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698281856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1279,549 +972,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>256381</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>174424</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2800350"/>
-          <a:ext cx="6352381" cy="1609524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1837,7 +989,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1846,37 +1004,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1884,34 +1012,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>237331</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227693</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623B83CE-D44E-4E52-A061-8AFB3999B4E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="2787650"/>
-          <a:ext cx="6352381" cy="1600000"/>
+          <a:off x="285750" y="3095625"/>
+          <a:ext cx="7257143" cy="1771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2185,101 +1319,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>2.6415999999999999E-2</v>
-      </c>
-      <c r="L1">
-        <v>2.4390999999999999E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.1899E-2</v>
-      </c>
-      <c r="L2">
-        <v>3.8918000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>7.9100000000000004E-3</v>
-      </c>
-      <c r="L3">
-        <v>3.2627999999999997E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>6.4590000000000003E-3</v>
-      </c>
-      <c r="L4">
-        <v>4.9598000000000003E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>4.8939999999999999E-3</v>
-      </c>
-      <c r="L5">
-        <v>1.6979999999999999E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>5.2259999999999997E-3</v>
-      </c>
-      <c r="L6">
-        <v>1.7240999999999999E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>3.4580000000000001E-3</v>
-      </c>
-      <c r="L7">
-        <v>1.7446E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>3.3769999999999998E-3</v>
-      </c>
-      <c r="L8">
-        <v>2.4243000000000001E-2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lab/Personal/graph.xlsx
+++ b/Lab/Personal/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\7SemParProg\Lab\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0286E-B859-4678-AF04-456A42DDF3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF6D93-568F-43B2-9585-68EDEE20B343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38955" yWindow="6510" windowWidth="25155" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="2610" windowWidth="25155" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время</a:t>
+              <a:t>Время от числа потоков</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
@@ -285,6 +285,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1322,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab/Personal/graph.xlsx
+++ b/Lab/Personal/graph.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\7SemParProg\Lab\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF6D93-568F-43B2-9585-68EDEE20B343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2610" windowWidth="25155" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="2610" windowWidth="25160" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -134,6 +133,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -430,7 +430,709 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>Ускорение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> от числа потоков</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0588235294117636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2318840579710137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4179104477611935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BD4-4A0E-87AB-9E970ECE38C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1587014384"/>
+        <c:axId val="1587008144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1587014384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587008144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1587008144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587014384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>Эффективность от числа потоков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6862745098039211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5579710144927534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.323076923076923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0696517412935322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C454-4DB0-90B0-93C0F379297A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1587014384"/>
+        <c:axId val="1587008144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1587014384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587008144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1587008144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587014384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -973,20 +1675,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121024</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>118222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>99172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1053,6 +2761,82 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>558801</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1320,64 +3104,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
+      <c r="C1">
+        <f>0.043/B1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>C1/A1</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C6" si="0">0.043/B2</f>
+        <v>3.583333333333333</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D6" si="1">C2/A2</f>
+        <v>1.7916666666666665</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>8.5000000000000006E-3</v>
       </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>5.0588235294117636</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>1.6862745098039211</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>6.8999999999999999E-3</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>6.2318840579710137</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1.5579710144927534</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6.615384615384615</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.323076923076923</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>6.7000000000000002E-3</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6.4179104477611935</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.0696517412935322</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1385,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1393,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K12" t="s">
         <v>0</v>
       </c>
